--- a/output/aggregate_tables/status_by_landings_tier.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier.xlsx
@@ -595,34 +595,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>13.43669908794797</v>
+        <v>13.41601713794797</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>23.57440505941732</v>
+        <v>23.57291757941732</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>9.512042467382447</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37.01110414736529</v>
+        <v>36.9889347173653</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>9.512042467382447</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>28.88175040956617</v>
+        <v>28.85104346226171</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>50.67242174015865</v>
+        <v>50.69338109984752</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>20.44582785027518</v>
+        <v>20.45557543789076</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>79.55417214972482</v>
+        <v>79.54442456210923</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>20.44582785027518</v>
+        <v>20.45557543789076</v>
       </c>
     </row>
     <row r="5">
@@ -668,31 +668,31 @@
         <v>1.973461585805349</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.551011299213153</v>
+        <v>2.541809319213153</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>3.313247882087953</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.524472885018501</v>
+        <v>4.515270905018502</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>3.313247882087953</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>25.17902390817012</v>
+        <v>25.20862042326108</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>32.54787169656901</v>
+        <v>32.46858554391547</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>42.27310439526087</v>
+        <v>42.32279403282344</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>57.72689560473913</v>
+        <v>57.67720596717656</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>42.27310439526087</v>
+        <v>42.32279403282344</v>
       </c>
     </row>
     <row r="7">
@@ -702,34 +702,34 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>18.53246260204853</v>
+        <v>18.51178065204853</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>33.70221339721761</v>
+        <v>33.6915239372176</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>17.59242457018554</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52.23467599926612</v>
+        <v>52.20330458926612</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>17.59242457018554</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>26.54050139689776</v>
+        <v>26.52279856516361</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>48.26523387391203</v>
+        <v>48.27161252266268</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>25.19426472919022</v>
+        <v>25.20558891217371</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>74.80573527080979</v>
+        <v>74.79441108782629</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>25.19426472919022</v>
+        <v>25.20558891217371</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier.xlsx
@@ -598,31 +598,31 @@
         <v>13.41601713794797</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>23.57291757941732</v>
+        <v>23.57222713941732</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>9.512042467382447</v>
+        <v>9.511387327382446</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36.9889347173653</v>
+        <v>36.9882442773653</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.512042467382447</v>
+        <v>9.511387327382446</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>28.85104346226171</v>
+        <v>28.85187833741496</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>50.69338109984752</v>
+        <v>50.69336320722707</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>20.45557543789076</v>
+        <v>20.45475845535797</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>79.54442456210923</v>
+        <v>79.54524154464202</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>20.45557543789076</v>
+        <v>20.45475845535797</v>
       </c>
     </row>
     <row r="5">
@@ -630,34 +630,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>3.122301928295204</v>
+        <v>3.119864578295203</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.576797038587121</v>
+        <v>7.576614653587121</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>4.767134220715143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.69909896688233</v>
+        <v>10.69647923188232</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>4.767134220715143</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>20.18786274862977</v>
+        <v>20.17552099228884</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>48.98928489364193</v>
+        <v>48.99640486237359</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>30.8228523577283</v>
+        <v>30.82807414533758</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>69.17714764227171</v>
+        <v>69.17192585466243</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>30.8228523577283</v>
+        <v>30.82807414533758</v>
       </c>
     </row>
     <row r="6">
@@ -671,28 +671,28 @@
         <v>2.541809319213153</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.313247882087953</v>
+        <v>3.313057327087952</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>4.515270905018502</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.313247882087953</v>
+        <v>3.313057327087952</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>25.20862042326108</v>
+        <v>25.20923404452508</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>32.46858554391547</v>
+        <v>32.46937588524186</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>42.32279403282344</v>
+        <v>42.32139007023306</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>57.67720596717656</v>
+        <v>57.67860992976694</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>42.32279403282344</v>
+        <v>42.32139007023306</v>
       </c>
     </row>
     <row r="7">
@@ -702,34 +702,34 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>18.51178065204853</v>
+        <v>18.50934330204852</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>33.6915239372176</v>
+        <v>33.69065111221759</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>17.59242457018554</v>
+        <v>17.59157887518554</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52.20330458926612</v>
+        <v>52.19999441426612</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17.59242457018554</v>
+        <v>17.59157887518554</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>26.52279856516361</v>
+        <v>26.52088558783935</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>48.27161252266268</v>
+        <v>48.27323632967825</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>25.20558891217371</v>
+        <v>25.20587808248241</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>74.79441108782629</v>
+        <v>74.7941219175176</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>25.20558891217371</v>
+        <v>25.20587808248241</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier.xlsx
@@ -595,34 +595,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>13.41601713794797</v>
+        <v>13.41533138794797</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>23.57222713941732</v>
+        <v>23.48790230289491</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>9.511387327382446</v>
+        <v>9.268718574650407</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36.9882442773653</v>
+        <v>36.90323369084288</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.511387327382446</v>
+        <v>9.268718574650407</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>28.85187833741496</v>
+        <v>29.05515303058552</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>50.69336320722707</v>
+        <v>50.87049853954008</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>20.45475845535797</v>
+        <v>20.07434842987439</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>79.54524154464202</v>
+        <v>79.92565157012559</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>20.45475845535797</v>
+        <v>20.07434842987439</v>
       </c>
     </row>
     <row r="5">
@@ -633,31 +633,31 @@
         <v>3.119864578295203</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.576614653587121</v>
+        <v>7.571422503565985</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.767134220715143</v>
+        <v>4.766509757150653</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.69647923188232</v>
+        <v>10.69128708186119</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.767134220715143</v>
+        <v>4.766509757150653</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>20.17552099228884</v>
+        <v>20.18311283805593</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>48.99640486237359</v>
+        <v>48.98125251884212</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>30.82807414533758</v>
+        <v>30.83563464310195</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>69.17192585466243</v>
+        <v>69.16436535689806</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>30.82807414533758</v>
+        <v>30.83563464310195</v>
       </c>
     </row>
     <row r="6">
@@ -702,34 +702,34 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>18.50934330204852</v>
+        <v>18.50865755204852</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>33.69065111221759</v>
+        <v>33.60113412567404</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>17.59157887518554</v>
+        <v>17.34828565888902</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52.19999441426612</v>
+        <v>52.10979167772258</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17.59157887518554</v>
+        <v>17.34828565888902</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>26.52088558783935</v>
+        <v>26.64723565892969</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>48.27323632967825</v>
+        <v>48.37613624522655</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>25.20587808248241</v>
+        <v>24.97662809584376</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>74.7941219175176</v>
+        <v>75.02337190415625</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>25.20587808248241</v>
+        <v>24.97662809584376</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier.xlsx
@@ -595,34 +595,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>13.41533138794797</v>
+        <v>13.76605565841309</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>23.48790230289491</v>
+        <v>23.5200673181195</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>9.268718574650407</v>
+        <v>9.354616676624369</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36.90323369084288</v>
+        <v>37.28612297653259</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.268718574650407</v>
+        <v>9.354616676624369</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>29.05515303058552</v>
+        <v>29.51508865593496</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>50.87049853954008</v>
+        <v>50.42816107340078</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>20.07434842987439</v>
+        <v>20.05675027066426</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>79.92565157012559</v>
+        <v>79.94324972933575</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>20.07434842987439</v>
+        <v>20.05675027066426</v>
       </c>
     </row>
     <row r="5">
@@ -630,34 +630,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>3.119864578295203</v>
+        <v>3.113993472954261</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.571422503565985</v>
+        <v>7.573692694476735</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.766509757150653</v>
+        <v>4.687905498431093</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.69128708186119</v>
+        <v>10.687686167431</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.766509757150653</v>
+        <v>4.687905498431093</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>20.18311283805593</v>
+        <v>20.25283670785922</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>48.98125251884212</v>
+        <v>49.25789432410819</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>30.83563464310195</v>
+        <v>30.48926896803257</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>69.16436535689806</v>
+        <v>69.51073103196742</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>30.83563464310195</v>
+        <v>30.48926896803257</v>
       </c>
     </row>
     <row r="6">
@@ -665,34 +665,34 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>1.973461585805349</v>
+        <v>1.605530065805349</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>2.541809319213153</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.313057327087952</v>
+        <v>3.313037243155932</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.515270905018502</v>
+        <v>4.147339385018502</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.313057327087952</v>
+        <v>3.313037243155932</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>25.20923404452508</v>
+        <v>21.52076424321521</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>32.46937588524186</v>
+        <v>34.07079087152116</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>42.32139007023306</v>
+        <v>44.40844488526362</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>57.67860992976694</v>
+        <v>55.59155511473638</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>42.32139007023306</v>
+        <v>44.40844488526362</v>
       </c>
     </row>
     <row r="7">
@@ -702,34 +702,34 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>18.50865755204852</v>
+        <v>18.4855791971727</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>33.60113412567404</v>
+        <v>33.63556933180939</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>17.34828565888902</v>
+        <v>17.35555941821139</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52.10979167772258</v>
+        <v>52.12114852898209</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17.34828565888902</v>
+        <v>17.35555941821139</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>26.64723565892969</v>
+        <v>26.6068726388459</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>48.37613624522655</v>
+        <v>48.41272755377884</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>24.97662809584376</v>
+        <v>24.98039980737526</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>75.02337190415625</v>
+        <v>75.01960019262474</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>24.97662809584376</v>
+        <v>24.98039980737526</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier.xlsx
@@ -595,34 +595,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>13.76605565841309</v>
+        <v>13.7862109280457</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>23.5200673181195</v>
+        <v>23.73468998140619</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>9.354616676624369</v>
+        <v>9.451906484550653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37.28612297653259</v>
+        <v>37.5209009094519</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.354616676624369</v>
+        <v>9.451906484550653</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>29.51508865593496</v>
+        <v>29.3493442118725</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>50.42816107340078</v>
+        <v>50.52857450550554</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>20.05675027066426</v>
+        <v>20.12208128262197</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>79.94324972933575</v>
+        <v>79.87791871737804</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>20.05675027066426</v>
+        <v>20.12208128262197</v>
       </c>
     </row>
     <row r="5">
@@ -630,34 +630,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>3.113993472954261</v>
+        <v>3.106743190084925</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.573692694476735</v>
+        <v>7.359198454483503</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.687905498431093</v>
+        <v>4.592105690747232</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.687686167431</v>
+        <v>10.46594164456843</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.687905498431093</v>
+        <v>4.592105690747232</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>20.25283670785922</v>
+        <v>20.63177994399497</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>49.25789432410819</v>
+        <v>48.87219631209395</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>30.48926896803257</v>
+        <v>30.49602374391107</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>69.51073103196742</v>
+        <v>69.50397625608892</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>30.48926896803257</v>
+        <v>30.49602374391107</v>
       </c>
     </row>
     <row r="6">
@@ -665,34 +665,34 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>1.605530065805349</v>
+        <v>1.592625079042069</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.541809319213153</v>
+        <v>2.541680895919691</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.313037243155932</v>
+        <v>3.311547242913508</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.147339385018502</v>
+        <v>4.13430597496176</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.313037243155932</v>
+        <v>3.311547242913508</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>21.52076424321521</v>
+        <v>21.38942351453628</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>34.07079087152116</v>
+        <v>34.13552243842082</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>44.40844488526362</v>
+        <v>44.4750540470429</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>55.59155511473638</v>
+        <v>55.5249459529571</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>44.40844488526362</v>
+        <v>44.4750540470429</v>
       </c>
     </row>
     <row r="7">

--- a/output/aggregate_tables/status_by_landings_tier.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier.xlsx
@@ -595,34 +595,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>13.7862109280457</v>
+        <v>13.78590921654737</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>23.73468998140619</v>
+        <v>23.7392435359047</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>9.451906484550653</v>
+        <v>9.440298182615736</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37.5209009094519</v>
+        <v>37.52515275245207</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.451906484550653</v>
+        <v>9.440298182615736</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>29.3493442118725</v>
+        <v>29.35329895076938</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>50.52857450550554</v>
+        <v>50.54618461712514</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>20.12208128262197</v>
+        <v>20.10051643210547</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>79.87791871737804</v>
+        <v>79.89948356789452</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>20.12208128262197</v>
+        <v>20.10051643210547</v>
       </c>
     </row>
     <row r="5">
@@ -633,31 +633,31 @@
         <v>3.106743190084925</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.359198454483503</v>
+        <v>7.359110313105948</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.592105690747232</v>
+        <v>4.595801434311215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.46594164456843</v>
+        <v>10.46585350319087</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.592105690747232</v>
+        <v>4.595801434311215</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>20.63177994399497</v>
+        <v>20.62683817267272</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>48.87219631209395</v>
+        <v>48.85990512757309</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>30.49602374391107</v>
+        <v>30.5132566997542</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>69.50397625608892</v>
+        <v>69.48674330024581</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>30.49602374391107</v>
+        <v>30.5132566997542</v>
       </c>
     </row>
     <row r="6">
@@ -665,34 +665,34 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>1.592625079042069</v>
+        <v>1.592623988053115</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.541680895919691</v>
+        <v>2.541715125698118</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.311547242913508</v>
+        <v>3.311559633430912</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.13430597496176</v>
+        <v>4.134339113751233</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.311547242913508</v>
+        <v>3.311559633430912</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>21.38942351453628</v>
+        <v>21.38927807278918</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>34.13552243842082</v>
+        <v>34.13577342372557</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>44.4750540470429</v>
+        <v>44.47494850348524</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>55.5249459529571</v>
+        <v>55.52505149651475</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>44.4750540470429</v>
+        <v>44.47494850348524</v>
       </c>
     </row>
     <row r="7">
@@ -702,34 +702,34 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>18.4855791971727</v>
+        <v>18.48527639468541</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>33.63556933180939</v>
+        <v>33.64006897470877</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>17.35555941821139</v>
+        <v>17.34765925035786</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52.12114852898209</v>
+        <v>52.12534536939418</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17.35555941821139</v>
+        <v>17.34765925035786</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>26.6068726388459</v>
+        <v>26.60785508826232</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>48.41272755377884</v>
+        <v>48.42178506433054</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>24.98039980737526</v>
+        <v>24.97035984740712</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>75.01960019262474</v>
+        <v>75.02964015259286</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>24.98039980737526</v>
+        <v>24.97035984740712</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier.xlsx
@@ -595,34 +595,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>13.78590921654737</v>
+        <v>13.79251425345317</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>23.7392435359047</v>
+        <v>23.86841542577761</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>9.440298182615736</v>
+        <v>9.316530434987738</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37.52515275245207</v>
+        <v>37.66092967923078</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.440298182615736</v>
+        <v>9.316530434987738</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>29.35329895076938</v>
+        <v>29.35985517292501</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>50.54618461712514</v>
+        <v>50.80822881387201</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>20.10051643210547</v>
+        <v>19.83191601320297</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>79.89948356789452</v>
+        <v>80.16808398679703</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>20.10051643210547</v>
+        <v>19.83191601320297</v>
       </c>
     </row>
     <row r="5">
@@ -630,34 +630,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>3.106743190084925</v>
+        <v>3.107035811890402</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.359110313105948</v>
+        <v>7.360619937584024</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.595801434311215</v>
+        <v>4.581926711876955</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.46585350319087</v>
+        <v>10.46765574947442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.595801434311215</v>
+        <v>4.581926711876955</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>20.62683817267272</v>
+        <v>20.64532899746246</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>48.85990512757309</v>
+        <v>48.90913057878335</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>30.5132566997542</v>
+        <v>30.44554042375418</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>69.48674330024581</v>
+        <v>69.55445957624582</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>30.5132566997542</v>
+        <v>30.44554042375418</v>
       </c>
     </row>
     <row r="6">
@@ -668,31 +668,31 @@
         <v>1.592623988053115</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.541715125698118</v>
+        <v>2.541778422698118</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>3.311559633430912</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.134339113751233</v>
+        <v>4.134402410751234</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>3.311559633430912</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>21.38927807278918</v>
+        <v>21.38909624576318</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>34.13577342372557</v>
+        <v>34.13633332557907</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>44.47494850348524</v>
+        <v>44.47457042865774</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>55.52505149651475</v>
+        <v>55.52542957134225</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>44.47494850348524</v>
+        <v>44.47457042865774</v>
       </c>
     </row>
     <row r="7">
@@ -702,34 +702,34 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>18.48527639468541</v>
+        <v>18.49217405339669</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>33.64006897470877</v>
+        <v>33.77081378605975</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>17.34765925035786</v>
+        <v>17.21001678029561</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52.12534536939418</v>
+        <v>52.26298783945644</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17.34765925035786</v>
+        <v>17.21001678029561</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>26.60785508826232</v>
+        <v>26.61778363352825</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>48.42178506433054</v>
+        <v>48.60998019431894</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>24.97035984740712</v>
+        <v>24.77223617215281</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>75.02964015259286</v>
+        <v>75.22776382784718</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>24.97035984740712</v>
+        <v>24.77223617215281</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier.xlsx
@@ -595,34 +595,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>13.79251425345317</v>
+        <v>13.78727454845317</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>23.86841542577761</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>9.316530434987738</v>
+        <v>9.316530384987738</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37.66092967923078</v>
+        <v>37.65568997423077</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.316530434987738</v>
+        <v>9.316530384987738</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>29.35985517292501</v>
+        <v>29.35197536547227</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>50.80822881387201</v>
+        <v>50.81389647592701</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>19.83191601320297</v>
+        <v>19.83412815860072</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>80.16808398679703</v>
+        <v>80.16587184139928</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>19.83191601320297</v>
+        <v>19.83412815860072</v>
       </c>
     </row>
     <row r="5">
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>3.107035811890402</v>
+        <v>3.107224306890402</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>7.360619937584024</v>
@@ -639,25 +639,25 @@
         <v>4.581926711876955</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.46765574947442</v>
+        <v>10.46784424447443</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>4.581926711876955</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>20.64532899746246</v>
+        <v>20.64632289688818</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>48.90913057878335</v>
+        <v>48.90851800291125</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>30.44554042375418</v>
+        <v>30.44515910020057</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>69.55445957624582</v>
+        <v>69.55484089979943</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>30.44554042375418</v>
+        <v>30.44515910020057</v>
       </c>
     </row>
     <row r="6">
@@ -702,34 +702,34 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>18.49217405339669</v>
+        <v>18.48712284339669</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>33.77081378605975</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>17.21001678029561</v>
+        <v>17.21001673029561</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52.26298783945644</v>
+        <v>52.25793662945644</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17.21001678029561</v>
+        <v>17.21001673029561</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>26.61778363352825</v>
+        <v>26.61244782562956</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>48.60998019431894</v>
+        <v>48.61351479749467</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>24.77223617215281</v>
+        <v>24.77403737687578</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>75.22776382784718</v>
+        <v>75.22596262312422</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>24.77223617215281</v>
+        <v>24.77403737687578</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier.xlsx
@@ -595,34 +595,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>13.78727454845317</v>
+        <v>12.57312357674528</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>23.86841542577761</v>
+        <v>22.74390468266144</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>9.316530384987738</v>
+        <v>8.120188678169109</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37.65568997423077</v>
+        <v>35.31702825940672</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.316530384987738</v>
+        <v>8.120188678169109</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>29.35197536547227</v>
+        <v>28.94550908916258</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>50.81389647592701</v>
+        <v>52.3604095431505</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>19.83412815860072</v>
+        <v>18.69408136768692</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>80.16587184139928</v>
+        <v>81.30591863231308</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>19.83412815860072</v>
+        <v>18.69408136768692</v>
       </c>
     </row>
     <row r="5">
@@ -630,34 +630,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>3.107224306890402</v>
+        <v>2.881923937000053</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.360619937584024</v>
+        <v>6.288893284090057</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.581926711876955</v>
+        <v>6.401703878321332</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.46784424447443</v>
+        <v>9.170817221090109</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.581926711876955</v>
+        <v>6.401703878321332</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>20.64632289688818</v>
+        <v>18.50646994537689</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>48.90851800291125</v>
+        <v>40.38455458781009</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>30.44515910020057</v>
+        <v>41.10897546681303</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>69.55484089979943</v>
+        <v>58.89102453318698</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>30.44515910020057</v>
+        <v>41.10897546681303</v>
       </c>
     </row>
     <row r="6">
@@ -665,34 +665,34 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>1.592623988053115</v>
+        <v>0.7207595299988483</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.541778422698118</v>
+        <v>1.480911020051191</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.311559633430912</v>
+        <v>2.751455374404955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.134402410751234</v>
+        <v>2.201670550050039</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.311559633430912</v>
+        <v>2.751455374404955</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>21.38909624576318</v>
+        <v>14.55160924619851</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>34.13633332557907</v>
+        <v>29.89851343652522</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>44.47457042865774</v>
+        <v>55.54987731727626</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>55.52542957134225</v>
+        <v>44.45012268272373</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>44.47457042865774</v>
+        <v>55.54987731727626</v>
       </c>
     </row>
     <row r="7">
@@ -702,34 +702,34 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>18.48712284339669</v>
+        <v>16.17580704374418</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>33.77081378605975</v>
+        <v>30.51370898680268</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>17.21001673029561</v>
+        <v>17.27334793089539</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52.25793662945644</v>
+        <v>46.68951603054686</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17.21001673029561</v>
+        <v>17.27334793089539</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>26.61244782562956</v>
+        <v>25.28937267958356</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>48.61351479749467</v>
+        <v>47.70535135074125</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>24.77403737687578</v>
+        <v>27.00527596967519</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>75.22596262312422</v>
+        <v>72.99472403032482</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>24.77403737687578</v>
+        <v>27.00527596967519</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier.xlsx
@@ -595,34 +595,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>12.57312357674528</v>
+        <v>12.28621590875939</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>22.74390468266144</v>
+        <v>22.84334633053492</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8.120188678169109</v>
+        <v>8.274337102139738</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35.31702825940672</v>
+        <v>35.12956223929431</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.120188678169109</v>
+        <v>8.274337102139738</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>28.94550908916258</v>
+        <v>28.30670998499615</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>52.3604095431505</v>
+        <v>52.62970995034149</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>18.69408136768692</v>
+        <v>19.06358006466236</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>81.30591863231308</v>
+        <v>80.93641993533763</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>18.69408136768692</v>
+        <v>19.06358006466236</v>
       </c>
     </row>
     <row r="5">
@@ -630,34 +630,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>2.881923937000053</v>
+        <v>2.89482395976699</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.288893284090057</v>
+        <v>6.116920693592395</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.401703878321332</v>
+        <v>3.562598511650201</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.170817221090109</v>
+        <v>9.011744653359385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.401703878321332</v>
+        <v>3.562598511650201</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>18.50646994537689</v>
+        <v>23.02167136508862</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>40.38455458781009</v>
+        <v>48.64604546990453</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>41.10897546681303</v>
+        <v>28.33228316500686</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>58.89102453318698</v>
+        <v>71.66771683499314</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>41.10897546681303</v>
+        <v>28.33228316500686</v>
       </c>
     </row>
     <row r="6">
@@ -665,34 +665,34 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.7207595299988483</v>
+        <v>0.5897546343024604</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.480911020051191</v>
+        <v>1.219222061742319</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.751455374404955</v>
+        <v>1.746136394514638</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.201670550050039</v>
+        <v>1.80897669604478</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.751455374404955</v>
+        <v>1.746136394514638</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>14.55160924619851</v>
+        <v>16.58891346856308</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>29.89851343652522</v>
+        <v>34.29488825489002</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>55.54987731727626</v>
+        <v>49.1161982765469</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>44.45012268272373</v>
+        <v>50.8838017234531</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>55.54987731727626</v>
+        <v>49.1161982765469</v>
       </c>
     </row>
     <row r="7">
@@ -702,34 +702,34 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>16.17580704374418</v>
+        <v>15.77079450282884</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>30.51370898680268</v>
+        <v>30.17948908586963</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>17.27334793089539</v>
+        <v>13.58307200830458</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46.68951603054686</v>
+        <v>45.95028358869847</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17.27334793089539</v>
+        <v>13.58307200830458</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>25.28937267958356</v>
+        <v>26.49068634663481</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>47.70535135074125</v>
+        <v>50.69341175754067</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>27.00527596967519</v>
+        <v>22.81590189582453</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>72.99472403032482</v>
+        <v>77.18409810417548</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>27.00527596967519</v>
+        <v>22.81590189582453</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier.xlsx
@@ -595,34 +595,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>12.28621590875939</v>
+        <v>12.28621263430345</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>22.84334633053492</v>
+        <v>22.84331782669652</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8.274337102139738</v>
+        <v>8.274325641543937</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35.12956223929431</v>
+        <v>35.12953046099997</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.274337102139738</v>
+        <v>8.274325641543937</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>28.30670998499615</v>
+        <v>28.30673063996116</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>52.62970995034149</v>
+        <v>52.62969670880847</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>19.06358006466236</v>
+        <v>19.06357265123036</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>80.93641993533763</v>
+        <v>80.93642734876963</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>19.06358006466236</v>
+        <v>19.06357265123036</v>
       </c>
     </row>
     <row r="5">
@@ -630,34 +630,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>2.89482395976699</v>
+        <v>2.894803642068446</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.116920693592395</v>
+        <v>6.117471033592396</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.562598511650201</v>
+        <v>3.563509027194259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.011744653359385</v>
+        <v>9.012274675660841</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.562598511650201</v>
+        <v>3.563509027194259</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>23.02167136508862</v>
+        <v>23.0188727038239</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>48.64604546990453</v>
+        <v>48.6448493242098</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>28.33228316500686</v>
+        <v>28.33627797196631</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>71.66771683499314</v>
+        <v>71.6637220280337</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>28.33228316500686</v>
+        <v>28.33627797196631</v>
       </c>
     </row>
     <row r="6">
@@ -702,34 +702,34 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>15.77079450282884</v>
+        <v>15.77077091067435</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>30.17948908586963</v>
+        <v>30.18001092203123</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>13.58307200830458</v>
+        <v>13.58397106325284</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45.95028358869847</v>
+        <v>45.95078183270559</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13.58307200830458</v>
+        <v>13.58397106325284</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>26.49068634663481</v>
+        <v>26.4900249745472</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>50.69341175754067</v>
+        <v>50.69309849118402</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>22.81590189582453</v>
+        <v>22.81687653426877</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>77.18409810417548</v>
+        <v>77.18312346573123</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>22.81590189582453</v>
+        <v>22.81687653426877</v>
       </c>
     </row>
   </sheetData>
